--- a/网站测试.xlsx
+++ b/网站测试.xlsx
@@ -313,10 +313,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>网站导航链接设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.4u4v.net/magento-navigation-menu-links-to-add-non-product.html</t>
-  </si>
-  <si>
-    <t>网站导航链接设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +389,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1062,25 +1064,28 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
